--- a/quizdata/quizlist.xlsx
+++ b/quizdata/quizlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0woodyprojects\ikkohquiz\quizdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12C119E-9953-46AC-AD4D-A4935F13FA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F600363-31AB-467F-9F61-404991EB5849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>answer</t>
     <phoneticPr fontId="1"/>
@@ -85,6 +85,21 @@
   </si>
   <si>
     <t>question</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>粉</t>
+    <rPh sb="0" eb="1">
+      <t>コナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こな</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -410,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -474,6 +489,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/quizdata/quizlist.xlsx
+++ b/quizdata/quizlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0woodyprojects\ikkohquiz\quizdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F600363-31AB-467F-9F61-404991EB5849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5244CD4E-E18A-4527-90A9-CA56AE0C41FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>answer</t>
     <phoneticPr fontId="1"/>
@@ -101,6 +101,22 @@
   <si>
     <t>こな</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>langid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api</t>
+  </si>
+  <si>
+    <t>gudang</t>
+  </si>
+  <si>
+    <t>bubuk</t>
+  </si>
+  <si>
+    <t>mahal</t>
   </si>
 </sst>
 </file>
@@ -425,15 +441,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -446,8 +462,11 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -460,8 +479,11 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -474,8 +496,11 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -488,8 +513,11 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -501,6 +529,9 @@
       </c>
       <c r="D5" t="s">
         <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/quizdata/quizlist.xlsx
+++ b/quizdata/quizlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0woodyprojects\ikkohquiz\quizdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5244CD4E-E18A-4527-90A9-CA56AE0C41FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C72A332-60CC-4E9C-AAF4-6C4251AAD0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>answer</t>
     <phoneticPr fontId="1"/>
@@ -117,6 +117,10 @@
   </si>
   <si>
     <t>mahal</t>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -159,8 +163,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -441,96 +446,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>19</v>
       </c>
     </row>
